--- a/biology/Neurosciences/Réflexe_crémastérien/Réflexe_crémastérien.xlsx
+++ b/biology/Neurosciences/Réflexe_crémastérien/Réflexe_crémastérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_cr%C3%A9mast%C3%A9rien</t>
+          <t>Réflexe_crémastérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réflexe crémastérien est un réflexe que l'on recherche par la stimulation du tiers supérieur et antéro-médial de la cuisse, en remontant vers l'aine ou en redescendant d'elle. Le réflexe normal, qui correspond à une contraction des fibres musculaires lisses du muscle crémaster[1], aboutit à une élévation du testicule du côté de la stimulation chez l'homme et de la grande lèvre du côté de la stimulation chez la femme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe crémastérien est un réflexe que l'on recherche par la stimulation du tiers supérieur et antéro-médial de la cuisse, en remontant vers l'aine ou en redescendant d'elle. Le réflexe normal, qui correspond à une contraction des fibres musculaires lisses du muscle crémaster, aboutit à une élévation du testicule du côté de la stimulation chez l'homme et de la grande lèvre du côté de la stimulation chez la femme.
 L'arc réflexe dépend des racines L1-L2. Le faisceau afférent passe par la branche fémorale du nerf génito-fémoral (L1-L2) et par le nerf ilio-inguinal (L1). Le faisceau efférent passe par la branche génitale du nerf génito-fémoral (L1-L2). 
 Le test du réflexe crémastérien a une utilité en urologie pour faire la différence clinique entre une torsion du cordon spermatique (réflexe aboli) et une torsion de l'hydatide pédiculée de Morgagni (réflexe conservé).
 </t>
